--- a/mixs-templates/MimarksS_plus_combinations/MimarksSPlantAssociated.xlsx
+++ b/mixs-templates/MimarksS_plus_combinations/MimarksSPlantAssociated.xlsx
@@ -984,7 +984,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
@@ -996,6 +996,9 @@
     </dataValidation>
     <dataValidation sqref="X2:X1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AU2:AU1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"breeder's line,clonal selection,hybrid,inbred line,mutant,natural,semi-natural,wild"</formula1>
     </dataValidation>
     <dataValidation sqref="BG2:BG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"erect,prostrate,semi-erect,spreading"</formula1>
